--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_makuma.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_makuma.xlsx
@@ -1986,7 +1986,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>chitsii.arena.player.null_chip_obtained,True</t>
+          <t>chitsii.arena.player.null_chip_obtained,1</t>
         </is>
       </c>
     </row>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_makuma.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_makuma.xlsx
@@ -1462,12 +1462,12 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>チップにはこう記されています。……『アリーナは牢獄ではない。ここは、高次元の観客たちが"神の種"を育てるための孵化器だ』と。</t>
+          <t>チップにはこう記されています。……『アリーナは牢獄ではない。ここは、観客たちが"神の種"を育てるための孵化器だ』と。</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>チップにはこう記されています。……『アリーナは牢獄ではない。ここは、高次元の観客たちが"神の種"を育てるための孵化器だ』と。</t>
+          <t>チップにはこう記されています。……『アリーナは牢獄ではない。ここは、観客たちが"神の種"を育てるための孵化器だ』と。</t>
         </is>
       </c>
     </row>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_makuma.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_makuma.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K99"/>
+  <dimension ref="A1:K90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,104 +498,134 @@
       </c>
     </row>
     <row r="8">
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>narr_1</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>（リリィの私室。以前よりも紫煙は濃く、甘い香りが理性を揺さぶる。）</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>（リリィの私室。以前よりも紫煙は濃く、甘い香りが理性を揺さぶる。）</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>narr_2</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>（彼女は机の上に、銀色に輝く未知の布地と、空間を切り裂くほどに鋭い針を並べていた。）</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>（彼女は机の上に、銀色に輝く未知の布地と、空間を切り裂くほどに鋭い針を並べていた。）</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>narr_3</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>（それは地上のどんな名工も手にしたことのない、『次元の境界線』そのものを織り込んだ素材だった。）</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>（それは地上のどんな名工も手にしたことのない、『次元の境界線』そのものを織り込んだ素材だった。）</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="F11" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>narr_1</t>
+          <t>lily_1</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>（リリィの私室。以前よりも紫煙は濃く、甘い香りが理性を揺さぶる。）</t>
+          <t>……あら、待っていましたよ。私の大切な『銀翼』さん。</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>（リリィの私室。以前よりも紫煙は濃く、甘い香りが理性を揺さぶる。）</t>
+          <t>……あら、待っていましたよ。私の大切な『銀翼』さん。</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="F12" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>narr_2</t>
+          <t>lily_2</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>（彼女は机の上に、銀色に輝く未知の布地と、空間を切り裂くほどに鋭い針を並べていた。）</t>
+          <t>ヌルという無機質な虚無を打ち破ったあなたには、相応の装いが必要だわ。これはね、あなたが戦いの中で流した汗と、次元の揺らぎを固定して作り上げた特別な布地……**『ヴォイド・シルク』**よ。</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>（彼女は机の上に、銀色に輝く未知の布地と、空間を切り裂くほどに鋭い針を並べていた。）</t>
+          <t>ヌルという無機質な虚無を打ち破ったあなたには、相応の装いが必要だわ。これはね、あなたが戦いの中で流した汗と、次元の揺らぎを固定して作り上げた特別な布地……**『ヴォイド・シルク』**よ。</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="F13" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>narr_3</t>
+          <t>lily_3</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>（それは地上のどんな名工も手にしたことのない、『次元の境界線』そのものを織り込んだ素材だった。）</t>
+          <t>さあ、こちらへ。寸法の測定（メジャー）が必要です。</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>（それは地上のどんな名工も手にしたことのない、『次元の境界線』そのものを織り込んだ素材だった。）</t>
+          <t>さあ、こちらへ。寸法の測定（メジャー）が必要です。</t>
         </is>
       </c>
     </row>
@@ -607,39 +637,39 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>lily_1</t>
+          <t>lily_4</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>……あら、待っていましたよ。私の大切な『銀翼』さん。</t>
+          <t>……ふふ、動かないで。あなたの筋肉の動き、魔力の拍動……その全てをこの衣に覚え込ませるのですから。</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>……あら、待っていましたよ。私の大切な『銀翼』さん。</t>
+          <t>……ふふ、動かないで。あなたの筋肉の動き、魔力の拍動……その全てをこの衣に覚え込ませるのですから。</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="F15" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>lily_2</t>
+          <t>narr_4</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>ヌルという無機質な虚無を打ち破ったあなたには、相応の装いが必要だわ。これはね、あなたが戦いの中で流した汗と、次元の揺らぎを固定して作り上げた特別な布地……**『ヴォイド・シルク』**よ。</t>
+          <t>（彼女の指があなたの体を這うように寸法を測る。）</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>ヌルという無機質な虚無を打ち破ったあなたには、相応の装いが必要だわ。これはね、あなたが戦いの中で流した汗と、次元の揺らぎを固定して作り上げた特別な布地……**『ヴォイド・シルク』**よ。</t>
+          <t>（彼女の指があなたの体を這うように寸法を測る。）</t>
         </is>
       </c>
     </row>
@@ -651,61 +681,61 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>lily_3</t>
+          <t>lily_5</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>さあ、こちらへ。寸法の測定（メジャー）が必要です。</t>
+          <t>……あぁ、いい感触。ランクGの頃の無骨なだけの肉体とは、まるで別人のようね。</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>さあ、こちらへ。寸法の測定（メジャー）が必要です。</t>
+          <t>……あぁ、いい感触。ランクGの頃の無骨なだけの肉体とは、まるで別人のようね。</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="F17" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>lily_4</t>
+          <t>narr_5</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>……ふふ、動かないで。あなたの筋肉の動き、魔力の拍動……その全てをこの衣に覚え込ませるのですから。</t>
+          <t>（しばらくして、リリィは完成した礼装をあなたに差し出す。）</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>……ふふ、動かないで。あなたの筋肉の動き、魔力の拍動……その全てをこの衣に覚え込ませるのですから。</t>
+          <t>（しばらくして、リリィは完成した礼装をあなたに差し出す。）</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="F18" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>narr_4</t>
+          <t>lily_6</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>（彼女の指があなたの体を這うように寸法を測る。）</t>
+          <t>完成しました。これを身に纏いなさい。</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>（彼女の指があなたの体を這うように寸法を測る。）</t>
+          <t>完成しました。これを身に纏いなさい。</t>
         </is>
       </c>
     </row>
@@ -717,178 +747,148 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>lily_5</t>
+          <t>lily_7</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>……あぁ、いい感触。ランクGの頃の無骨なだけの肉体とは、まるで別人のようね。</t>
+          <t>それはあなたの体を守る鎧であると同時に、私の『所有物』であることを示す刻印でもあるの。……その翼を広げて戦う時、あなたは誰よりも美しく、そして残酷に見えるはずよ。</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>……あぁ、いい感触。ランクGの頃の無骨なだけの肉体とは、まるで別人のようね。</t>
+          <t>それはあなたの体を守る鎧であると同時に、私の『所有物』であることを示す刻印でもあるの。……その翼を広げて戦う時、あなたは誰よりも美しく、そして残酷に見えるはずよ。</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>narr_5</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>（しばらくして、リリィは完成した礼装をあなたに差し出す。）</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>（しばらくして、リリィは完成した礼装をあなたに差し出す。）</t>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>choice1</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>react1_thanks</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>lily_6</t>
+          <t>c1_thanks</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>完成しました。これを身に纏いなさい。</t>
+          <t>……ありがとう</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>完成しました。これを身に纏いなさい。</t>
+          <t>……ありがとう</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>react1_property</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>lily_7</t>
+          <t>c1_property</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>それはあなたの体を守る鎧であると同時に、私の『所有物』であることを示す刻印でもあるの。……その翼を広げて戦う時、あなたは誰よりも美しく、そして残酷に見えるはずよ。</t>
+          <t>所有物……か</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>それはあなたの体を守る鎧であると同時に、私の『所有物』であることを示す刻印でもあるの。……その翼を広げて戦う時、あなたは誰よりも美しく、そして残酷に見えるはずよ。</t>
+          <t>所有物……か</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>choice1</t>
+          <t>react1_silent</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>c1_silent</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>（無言で礼装を受け取る）</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>（無言で礼装を受け取る）</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="B24" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>react1_thanks</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>c1_thanks</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>……ありがとう</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>……ありがとう</t>
-        </is>
-      </c>
     </row>
     <row r="25">
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>react1_property</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>choice</t>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>c1_property</t>
+          <t>lily_r1</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>所有物……か</t>
+          <t>ふふ、どういたしまして。……あなたが戦う姿を見るのが楽しみですわ。</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>所有物……か</t>
+          <t>ふふ、どういたしまして。……あなたが戦う姿を見るのが楽しみですわ。</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>react1_silent</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>c1_silent</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>（無言で礼装を受け取る）</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>（無言で礼装を受け取る）</t>
+          <t>scene2_zek_appears</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>react1_thanks</t>
+          <t>react1_property</t>
         </is>
       </c>
     </row>
@@ -900,17 +900,17 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>lily_r1</t>
+          <t>lily_r2</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>ふふ、どういたしまして。……あなたが戦う姿を見るのが楽しみですわ。</t>
+          <t>ええ。あなたは私の大切な『観察対象』ですもの。当然でしょう？</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>ふふ、どういたしまして。……あなたが戦う姿を見るのが楽しみですわ。</t>
+          <t>ええ。あなたは私の大切な『観察対象』ですもの。当然でしょう？</t>
         </is>
       </c>
     </row>
@@ -924,7 +924,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>react1_property</t>
+          <t>react1_silent</t>
         </is>
       </c>
     </row>
@@ -936,17 +936,17 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>lily_r2</t>
+          <t>lily_r3</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>ええ。あなたは私の大切な『観察対象』ですもの。当然でしょう？</t>
+          <t>……無口ですが、気持ちは伝わりましたよ。</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>ええ。あなたは私の大切な『観察対象』ですもの。当然でしょう？</t>
+          <t>……無口ですが、気持ちは伝わりましたよ。</t>
         </is>
       </c>
     </row>
@@ -960,245 +960,290 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>react1_silent</t>
+          <t>scene2_zek_appears</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>lily_r3</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>……無口ですが、気持ちは伝わりましたよ。</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>……無口ですが、気持ちは伝わりましたよ。</t>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Ominous_Suspense_02");             var data = SoundManager.current.GetData("BGM/Ominous_Suspense_02");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Ominous_Suspense_02");             }</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>scene2_zek_appears</t>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>narr_6</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>（リリィの部屋を辞し、薄暗い廊下を歩くあなたの背後に、不自然な影が伸びる。）</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>（リリィの部屋を辞し、薄暗い廊下を歩くあなたの背後に、不自然な影が伸びる。）</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>scene2_zek_appears</t>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>narr_7</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>（ゼクが、まるで壁のシミから染み出すように姿を現した。）</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>（ゼクが、まるで壁のシミから染み出すように姿を現した。）</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Ominous_Suspense_02");             var data = SoundManager.current.GetData("BGM/Ominous_Suspense_02");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Ominous_Suspense_02");             }</t>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>narr_8</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>（その手には、先ほど倒した暗殺者『ヌル』の頭部から抜き取られた、鈍く明滅するクリスタルの破片——**『記録チップ』**が握られていた。）</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>（その手には、先ほど倒した暗殺者『ヌル』の頭部から抜き取られた、鈍く明滅するクリスタルの破片——**『記録チップ』**が握られていた。）</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="F38" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_shady_merchant</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>narr_6</t>
+          <t>zek_1</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>（リリィの部屋を辞し、薄暗い廊下を歩くあなたの背後に、不自然な影が伸びる。）</t>
+          <t>……ククッ、美しい衣装ですな。</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>（リリィの部屋を辞し、薄暗い廊下を歩くあなたの背後に、不自然な影が伸びる。）</t>
+          <t>……ククッ、美しい衣装ですな。</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="F39" t="inlineStr">
         <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>zek_2</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>ですが、その華やかな衣の下に隠された『真実』に、あなたは耐えられますかな？ あなたが壊したあの人形……ヌル。あれが何であったか、知りたくはありませんか？</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>ですが、その華やかな衣の下に隠された『真実』に、あなたは耐えられますかな？ あなたが壊したあの人形……ヌル。あれが何であったか、知りたくはありませんか？</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="F40" t="inlineStr">
+        <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>narr_7</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>（ゼクが、まるで壁のシミから染み出すように姿を現した。）</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>（ゼクが、まるで壁のシミから染み出すように姿を現した。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>narr_9</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>（彼はクリスタルの破片を掲げる。）</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>（彼はクリスタルの破片を掲げる。）</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>zek_3</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>このチップに残されていたのは、命令（プログラム）ではありません。……それは、かつてグランドマスター・アスタロトに挑み、敗れ、魂を『整理』された……ある冒険者の最期の記憶です。</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>このチップに残されていたのは、命令（プログラム）ではありません。……それは、かつてグランドマスター・アスタロトに挑み、敗れ、魂を『整理』された……ある冒険者の最期の記憶です。</t>
+        </is>
+      </c>
     </row>
     <row r="42">
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>zek_4</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>ヌルは、アスタロトが退屈しのぎに作った『失敗作の剥製』に過ぎない。</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>ヌルは、アスタロトが退屈しのぎに作った『失敗作の剥製』に過ぎない。</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>narr_8</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>（その手には、先ほど倒した暗殺者『ヌル』の頭部から抜き取られた、鈍く明滅するクリスタルの破片——**『記録チップ』**が握られていた。）</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>（その手には、先ほど倒した暗殺者『ヌル』の頭部から抜き取られた、鈍く明滅するクリスタルの破片——**『記録チップ』**が握られていた。）</t>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>choice2</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>react2_failure</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>zek_1</t>
+          <t>c2_failure</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>……ククッ、美しい衣装ですな。</t>
+          <t>……失敗作だと？</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>……ククッ、美しい衣装ですな。</t>
+          <t>……失敗作だと？</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>react2_adventurer</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>zek_2</t>
+          <t>c2_adventurer</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>ですが、その華やかな衣の下に隠された『真実』に、あなたは耐えられますかな？ あなたが壊したあの人形……ヌル。あれが何であったか、知りたくはありませんか？</t>
+          <t>アスタロトが冒険者を……？</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>ですが、その華やかな衣の下に隠された『真実』に、あなたは耐えられますかな？ あなたが壊したあの人形……ヌル。あれが何であったか、知りたくはありませんか？</t>
+          <t>アスタロトが冒険者を……？</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>pc</t>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>react2_silent</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>narr_9</t>
+          <t>c2_silent</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>（彼はクリスタルの破片を掲げる。）</t>
+          <t>（無言で聞く）</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>（彼はクリスタルの破片を掲げる。）</t>
+          <t>（無言で聞く）</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>zek_3</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>このチップに残されていたのは、命令（プログラム）ではありません。……それは、かつてグランドマスター・アスタロトに挑み、敗れ、魂を『整理』された……ある冒険者の最期の記憶です。</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>このチップに残されていたのは、命令（プログラム）ではありません。……それは、かつてグランドマスター・アスタロトに挑み、敗れ、魂を『整理』された……ある冒険者の最期の記憶です。</t>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>react2_failure</t>
         </is>
       </c>
     </row>
@@ -1210,112 +1255,67 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>zek_4</t>
+          <t>zek_r1</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>ヌルは、アスタロトが退屈しのぎに作った『失敗作の剥製』に過ぎない。</t>
+          <t>ええ。成功作は、もっと恐ろしいものになっているでしょうね。</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>ヌルは、アスタロトが退屈しのぎに作った『失敗作の剥製』に過ぎない。</t>
+          <t>ええ。成功作は、もっと恐ろしいものになっているでしょうね。</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>choice2</t>
+          <t>scene3_null_truth</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>react2_failure</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>c2_failure</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>……失敗作だと？</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>……失敗作だと？</t>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>react2_adventurer</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>react2_adventurer</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>choice</t>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>c2_adventurer</t>
+          <t>zek_r2</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>アスタロトが冒険者を……？</t>
+          <t>ええ。彼にとって、冒険者は『素材』に過ぎません。</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>アスタロトが冒険者を……？</t>
+          <t>ええ。彼にとって、冒険者は『素材』に過ぎません。</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>react2_silent</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>c2_silent</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>（無言で聞く）</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>（無言で聞く）</t>
+          <t>scene3_null_truth</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>react2_failure</t>
+          <t>react2_silent</t>
         </is>
       </c>
     </row>
@@ -1327,17 +1327,17 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>zek_r1</t>
+          <t>zek_r3</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>ええ。成功作は、もっと恐ろしいものになっているでしょうね。</t>
+          <t>……ふふ、沈黙は賢明さの証。では、続けさせていただきましょう。</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>ええ。成功作は、もっと恐ろしいものになっているでしょうね。</t>
+          <t>……ふふ、沈黙は賢明さの証。では、続けさせていただきましょう。</t>
         </is>
       </c>
     </row>
@@ -1351,43 +1351,73 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>react2_adventurer</t>
+          <t>scene3_null_truth</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="F57" t="inlineStr">
         <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>narr_10</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>（ゼクはクリスタルの破片を翳し、その中に浮かぶ記憶を語る。）</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>（ゼクはクリスタルの破片を翳し、その中に浮かぶ記憶を語る。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="F58" t="inlineStr">
+        <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>zek_r2</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>ええ。彼にとって、冒険者は『素材』に過ぎません。</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>ええ。彼にとって、冒険者は『素材』に過ぎません。</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>scene3_null_truth</t>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>zek_5</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>チップにはこう記されています。……『アリーナは牢獄ではない。ここは、観客たちが"神の種"を育てるための孵化器だ』と。</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>チップにはこう記されています。……『アリーナは牢獄ではない。ここは、観客たちが"神の種"を育てるための孵化器だ』と。</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>react2_silent</t>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>zek_6</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>あなたが強くなるほど、彼らは喜び、そして……あなたは『人間』から遠ざかる。ヌルが感情を失ったのは、強くなりすぎた末の成れの果て。</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>あなたが強くなるほど、彼らは喜び、そして……あなたは『人間』から遠ざかる。ヌルが感情を失ったのは、強くなりすぎた末の成れの果て。</t>
         </is>
       </c>
     </row>
@@ -1399,163 +1429,178 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>zek_r3</t>
+          <t>zek_7</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>……ふふ、沈黙は賢明さの証。では、続けさせていただきましょう。</t>
+          <t>……次は、あなたの番かもしれませんよ？</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>……ふふ、沈黙は賢明さの証。では、続けさせていただきましょう。</t>
+          <t>……次は、あなたの番かもしれませんよ？</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>scene3_null_truth</t>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>narr_11</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>（遠くでバルガスの足音が聞こえる。）</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>（遠くでバルガスの足音が聞こえる。）</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>scene3_null_truth</t>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>zek_8</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>……おや、バルガスの足音が聞こえる。このチップは私が預かっておきましょう。</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>……おや、バルガスの足音が聞こえる。このチップは私が預かっておきましょう。</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="F63" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_shady_merchant</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>narr_10</t>
+          <t>zek_9</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>（ゼクはクリスタルの破片を翳し、その中に浮かぶ記憶を語る。）</t>
+          <t>真実を知るには、まだあなたの『深度』が足りない。……いずれまた、この続きを話すとしましょう。</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>（ゼクはクリスタルの破片を翳し、その中に浮かぶ記憶を語る。）</t>
+          <t>真実を知るには、まだあなたの『深度』が足りない。……いずれまた、この続きを話すとしましょう。</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>zek_5</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>チップにはこう記されています。……『アリーナは牢獄ではない。ここは、観客たちが"神の種"を育てるための孵化器だ』と。</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>チップにはこう記されています。……『アリーナは牢獄ではない。ここは、観客たちが"神の種"を育てるための孵化器だ』と。</t>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>choice3</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>react3_wait</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>zek_6</t>
+          <t>c3_wait</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>あなたが強くなるほど、彼らは喜び、そして……あなたは『人間』から遠ざかる。ヌルが感情を失ったのは、強くなりすぎた末の成れの果て。</t>
+          <t>待て、もっと教えろ！</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>あなたが強くなるほど、彼らは喜び、そして……あなたは『人間』から遠ざかる。ヌルが感情を失ったのは、強くなりすぎた末の成れの果て。</t>
+          <t>待て、もっと教えろ！</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>react3_become</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>zek_7</t>
+          <t>c3_become</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>……次は、あなたの番かもしれませんよ？</t>
+          <t>俺も……ヌルのようになるのか？</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>……次は、あなたの番かもしれませんよ？</t>
+          <t>俺も……ヌルのようになるのか？</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>pc</t>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>react3_stare</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>narr_11</t>
+          <t>c3_stare</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>（遠くでバルガスの足音が聞こえる。）</t>
+          <t>（無言で記録チップが消えた場所を見つめる）</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>（遠くでバルガスの足音が聞こえる。）</t>
+          <t>（無言で記録チップが消えた場所を見つめる）</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>zek_8</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>……おや、バルガスの足音が聞こえる。このチップは私が預かっておきましょう。</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>……おや、バルガスの足音が聞こえる。このチップは私が預かっておきましょう。</t>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>react3_wait</t>
         </is>
       </c>
     </row>
@@ -1567,465 +1612,312 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>zek_9</t>
+          <t>zek_r4</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>真実を知るには、まだあなたの『深度』が足りない。……いずれまた、この続きを話すとしましょう。</t>
+          <t>……ふふ、焦らないで。時が来れば、全てを明かしましょう。</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>真実を知るには、まだあなたの『深度』が足りない。……いずれまた、この続きを話すとしましょう。</t>
+          <t>……ふふ、焦らないで。時が来れば、全てを明かしましょう。</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>choice3</t>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>narr_12</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>（ゼクが影の中へと消えていく。）</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>（ゼクが影の中へと消えていく。）</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="B71" t="inlineStr">
         <is>
-          <t>react3_wait</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>c3_wait</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>待て、もっと教えろ！</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>待て、もっと教えろ！</t>
+          <t>scene4_balgas</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="B72" t="inlineStr">
+      <c r="A72" t="inlineStr">
         <is>
           <t>react3_become</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>c3_become</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>俺も……ヌルのようになるのか？</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>俺も……ヌルのようになるのか？</t>
-        </is>
-      </c>
     </row>
     <row r="73">
-      <c r="B73" t="inlineStr">
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>zek_r5</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>……それは、あなた次第です。</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>……それは、あなた次第です。</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>narr_13</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>（ゼクが影の中へと消えていく。）</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>（ゼクが影の中へと消えていく。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>scene4_balgas</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
         <is>
           <t>react3_stare</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>c3_stare</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>（無言で記録チップが消えた場所を見つめる）</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>（無言で記録チップが消えた場所を見つめる）</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>react3_wait</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="F75" t="inlineStr">
+    </row>
+    <row r="77">
+      <c r="F77" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>zek_r4</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>……ふふ、焦らないで。時が来れば、全てを明かしましょう。</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>……ふふ、焦らないで。時が来れば、全てを明かしましょう。</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="F76" t="inlineStr">
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>zek_r6</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>……賢明ですね。では、またお会いしましょう。</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>……賢明ですね。では、またお会いしましょう。</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="F78" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>narr_12</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>narr_14</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
         <is>
           <t>（ゼクが影の中へと消えていく。）</t>
         </is>
       </c>
-      <c r="J76" t="inlineStr">
+      <c r="J78" t="inlineStr">
         <is>
           <t>（ゼクが影の中へと消えていく。）</t>
         </is>
       </c>
     </row>
-    <row r="77">
-      <c r="B77" t="inlineStr">
+    <row r="79">
+      <c r="B79" t="inlineStr">
         <is>
           <t>scene4_balgas</t>
         </is>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>react3_become</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>zek_r5</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>……それは、あなた次第です。</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>……それは、あなた次第です。</t>
-        </is>
-      </c>
-    </row>
     <row r="80">
-      <c r="F80" t="inlineStr">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>scene4_balgas</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lobby_Normal");             var data = SoundManager.current.GetData("BGM/Lobby_Normal");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lobby_Normal");             }</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="F82" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>narr_13</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>（ゼクが影の中へと消えていく。）</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>（ゼクが影の中へと消えていく。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>scene4_balgas</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>react3_stare</t>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>narr_15</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>（バルガスが廊下に現れる。）</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>（バルガスが廊下に現れる。）</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="F83" t="inlineStr">
         <is>
-          <t>sukutsu_shady_merchant</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>zek_r6</t>
+          <t>balgas_1</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>……賢明ですね。では、またお会いしましょう。</t>
+          <t>……おい、何をボーッとしてる？ ゼクの野郎、また何か吹き込んでいったんじゃねえだろうな？</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>……賢明ですね。では、またお会いしましょう。</t>
+          <t>……おい、何をボーッとしてる？ ゼクの野郎、また何か吹き込んでいったんじゃねえだろうな？</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="F84" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>narr_14</t>
+          <t>balgas_2</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>（ゼクが影の中へと消えていく。）</t>
+          <t>あいつの言うことは半分嘘、半分本当だ。全部を信じるなよ。……ただ、こいつだけは覚えておけ。お前が人間でいられるかどうかは、お前自身の選択次第だ。</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>（ゼクが影の中へと消えていく。）</t>
+          <t>あいつの言うことは半分嘘、半分本当だ。全部を信じるなよ。……ただ、こいつだけは覚えておけ。お前が人間でいられるかどうかは、お前自身の選択次第だ。</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>scene4_balgas</t>
+          <t>ending</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>scene4_balgas</t>
+          <t>ending</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="D87" t="inlineStr">
         <is>
-          <t>eval</t>
+          <t>setFlag</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lobby_Normal");             var data = SoundManager.current.GetData("BGM/Lobby_Normal");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lobby_Normal");             }</t>
+          <t>chitsii.arena.player.null_chip_obtained,1</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="D88" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>mod_flag(chitsii.arena.rel.lily, +10)</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>pc</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="D89" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>mod_flag(chitsii.arena.rel.zek, +10)</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>pc</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="D90" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>narr_15</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>（バルガスが廊下に現れる。）</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>（バルガスが廊下に現れる。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>balgas_1</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>……おい、何をボーッとしてる？ ゼクの野郎、また何か吹き込んでいったんじゃねえだろうな？</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>……おい、何をボーッとしてる？ ゼクの野郎、また何か吹き込んでいったんじゃねえだろうな？</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>balgas_2</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>あいつの言うことは半分嘘、半分本当だ。全部を信じるなよ。……ただ、こいつだけは覚えておけ。お前が人間でいられるかどうかは、お前自身の選択次第だ。</t>
-        </is>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>あいつの言うことは半分嘘、半分本当だ。全部を信じるなよ。……ただ、こいつだけは覚えておけ。お前が人間でいられるかどうかは、お前自身の選択次第だ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>ending</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>ending</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>chitsii.arena.player.null_chip_obtained,1</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>mod_flag(chitsii.arena.rel.lily, +10)</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>mod_flag(chitsii.arena.rel.zek, +10)</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="D99" t="inlineStr">
         <is>
           <t>end</t>
         </is>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_makuma.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_makuma.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K99"/>
+  <dimension ref="A1:K98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1993,39 +1993,17 @@
     <row r="97">
       <c r="D97" t="inlineStr">
         <is>
-          <t>invoke*</t>
+          <t>eval</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>mod_flag(chitsii.arena.rel.lily, +10)</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>pc</t>
+          <t>Elin_SukutsuArena.ArenaManager.GrantMakumaReward();</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="D98" t="inlineStr">
-        <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>mod_flag(chitsii.arena.rel.zek, +10)</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="D99" t="inlineStr">
         <is>
           <t>end</t>
         </is>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_makuma.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_makuma.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K98"/>
+  <dimension ref="A1:K111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1105,12 +1105,12 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>（その手には、先ほど倒した暗殺者『ヌル』の頭部から抜き取られた、鈍く明滅するクリスタルの破片——**『記録チップ』**が握られていた。）</t>
+          <t>（その手には、先ほど倒した暗殺者『ヌル』の頭部から抜き取られた、鈍く明滅するクリスタルの破片ーー**『記録チップ』**が握られていた。）</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>（その手には、先ほど倒した暗殺者『ヌル』の頭部から抜き取られた、鈍く明滅するクリスタルの破片——**『記録チップ』**が握られていた。）</t>
+          <t>（その手には、先ほど倒した暗殺者『ヌル』の頭部から抜き取られた、鈍く明滅するクリスタルの破片ーー**『記録チップ』**が握られていた。）</t>
         </is>
       </c>
     </row>
@@ -1193,12 +1193,12 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>このチップに残されていたのは、命令（プログラム）ではありません。……それは、かつてグランドマスター・アスタロトに挑み、敗れ、魂を『整理』された……ある冒険者の最期の記憶です。</t>
+          <t>このチップに残されていたのは……かつてグランドマスター・アスタロトに挑み、敗れ、魂を『整理』された……ある冒険者の最期の記録です。</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>このチップに残されていたのは、命令（プログラム）ではありません。……それは、かつてグランドマスター・アスタロトに挑み、敗れ、魂を『整理』された……ある冒険者の最期の記憶です。</t>
+          <t>このチップに残されていたのは……かつてグランドマスター・アスタロトに挑み、敗れ、魂を『整理』された……ある冒険者の最期の記録です。</t>
         </is>
       </c>
     </row>
@@ -1234,7 +1234,7 @@
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>react2_failure</t>
+          <t>react2_adventurer</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1244,150 +1244,145 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>c2_failure</t>
+          <t>c2_adventurer</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>……失敗作だと？</t>
+          <t>アスタロトが冒険者を……？</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>……失敗作だと？</t>
+          <t>アスタロトが冒険者を……？</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
+          <t>react2_silent</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>c2_silent</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>（無言で聞く）</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>（無言で聞く）</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
           <t>react2_adventurer</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>c2_adventurer</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>アスタロトが冒険者を……？</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>アスタロトが冒険者を……？</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="B52" t="inlineStr">
+    </row>
+    <row r="53">
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>zek_r2</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>ええ。彼にとって、闘士は『素材』に過ぎません。</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>ええ。彼にとって、闘士は『素材』に過ぎません。</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>scene3_null_truth</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
         <is>
           <t>react2_silent</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>c2_silent</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>（無言で聞く）</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>（無言で聞く）</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>react2_failure</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="F54" t="inlineStr">
+    </row>
+    <row r="56">
+      <c r="F56" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>zek_r1</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>ええ。成功作は、もっと恐ろしいものになっているでしょうね。</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>ええ。成功作は、もっと恐ろしいものになっているでしょうね。</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="B55" t="inlineStr">
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>zek_r3</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>……ふふ、沈黙は賢明さの証。では、続けさせていただきましょう。</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>……ふふ、沈黙は賢明さの証。では、続けさせていただきましょう。</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" t="inlineStr">
         <is>
           <t>scene3_null_truth</t>
         </is>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>react2_adventurer</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>zek_r2</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>ええ。彼にとって、冒険者は『素材』に過ぎません。</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>ええ。彼にとって、冒険者は『素材』に過ぎません。</t>
-        </is>
-      </c>
-    </row>
     <row r="58">
-      <c r="B58" t="inlineStr">
+      <c r="A58" t="inlineStr">
         <is>
           <t>scene3_null_truth</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>react2_silent</t>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>narr_10</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>（ゼクはクリスタルの破片を翳し、その中に浮かぶ記憶を語る。）</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>（ゼクはクリスタルの破片を翳し、その中に浮かぶ記憶を語る。）</t>
         </is>
       </c>
     </row>
@@ -1399,53 +1394,83 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>zek_r3</t>
+          <t>zek_5</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>……ふふ、沈黙は賢明さの証。では、続けさせていただきましょう。</t>
+          <t>チップにはこう記されています。……『アリーナは、"神の種"を育てるための孵化器だ』と。</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>……ふふ、沈黙は賢明さの証。では、続けさせていただきましょう。</t>
+          <t>チップにはこう記されています。……『アリーナは、"神の種"を育てるための孵化器だ』と。</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>scene3_null_truth</t>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>zek_6b</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>敗北した闘士がどうなるか……あなたはもうご覧になったはず。あの黒い霧に包まれ、『回収』された者たちは……アスタロトの計画の礎となるのです。</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>敗北した闘士がどうなるか……あなたはもうご覧になったはず。あの黒い霧に包まれ、『回収』された者たちは……アスタロトの計画の礎となるのです。</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>scene3_null_truth</t>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>zek_6c</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>あなたも、本来ならば彼女と同じ運命を辿るはずだった。……あなたは『特別な事情がある』ようですが。</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>あなたも、本来ならば彼女と同じ運命を辿るはずだった。……あなたは『特別な事情がある』ようですが。</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="F63" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_shady_merchant</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>narr_10</t>
+          <t>zek_6d</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>（ゼクはクリスタルの破片を翳し、その中に浮かぶ記憶を語る。）</t>
+          <t>……不思議に思いませんか？ なぜあなたは、敗北しても『回収』されないのか。</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>（ゼクはクリスタルの破片を翳し、その中に浮かぶ記憶を語る。）</t>
+          <t>……不思議に思いませんか？ なぜあなたは、敗北しても『回収』されないのか。</t>
         </is>
       </c>
     </row>
@@ -1457,17 +1482,17 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>zek_5</t>
+          <t>zek_6e</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>チップにはこう記されています。……『アリーナは牢獄ではない。ここは、観客たちが"神の種"を育てるための孵化器だ』と。</t>
+          <t>私の推測ですが……あなたはイルヴァと繋がりがあるでしょう？ あなただけが、外部のリソースを使って、効率よく強くなれる。</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>チップにはこう記されています。……『アリーナは牢獄ではない。ここは、観客たちが"神の種"を育てるための孵化器だ』と。</t>
+          <t>私の推測ですが……あなたはイルヴァと繋がりがあるでしょう？ あなただけが、外部のリソースを使って、効率よく強くなれる。</t>
         </is>
       </c>
     </row>
@@ -1479,17 +1504,17 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>zek_6</t>
+          <t>zek_6f</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>あなたが強くなるほど、彼らは喜び、そして……あなたは『人間』から遠ざかる。ヌルが感情を失ったのは、強くなりすぎた末の成れの果て。</t>
+          <t>それは、アスタロト様にとって、あなたが『投資価値のある商品』であることを意味します。今すぐ回収するより、もっと育ててからの方が得だと判断されたのでしょうね。</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>あなたが強くなるほど、彼らは喜び、そして……あなたは『人間』から遠ざかる。ヌルが感情を失ったのは、強くなりすぎた末の成れの果て。</t>
+          <t>それは、アスタロト様にとって、あなたが『投資価値のある商品』であることを意味します。今すぐ回収するより、もっと育ててからの方が得だと判断されたのでしょうね。</t>
         </is>
       </c>
     </row>
@@ -1501,178 +1526,148 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>zek_7</t>
+          <t>zek_6g</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>……次は、あなたの番かもしれませんよ？</t>
+          <t>……つまり、あなたは大事に育てられているのですよ。おめでとうございます。</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>……次は、あなたの番かもしれませんよ？</t>
+          <t>……つまり、あなたは大事に育てられているのですよ。おめでとうございます。</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>narr_11</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>（遠くでバルガスの足音が聞こえる。）</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>（遠くでバルガスの足音が聞こえる。）</t>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>choice4</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>react4_bored</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>zek_8</t>
+          <t>c4_bored</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>……おや、バルガスの足音が聞こえる。このチップは私が預かっておきましょう。</t>
+          <t>……与太話はうんざりだ</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>……おや、バルガスの足音が聞こえる。このチップは私が預かっておきましょう。</t>
+          <t>……与太話はうんざりだ</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>react4_scared</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>zek_9</t>
+          <t>c4_scared</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>真実を知るには、まだあなたの『深度』が足りない。……いずれまた、この続きを話すとしましょう。</t>
+          <t>ゾッとする話だね</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>真実を知るには、まだあなたの『深度』が足りない。……いずれまた、この続きを話すとしましょう。</t>
+          <t>ゾッとする話だね</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="B70" t="inlineStr">
         <is>
-          <t>choice3</t>
+          <t>react4_defiant</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>c4_defiant</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>私に手を出す奴は必ず後悔させてやる</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>私に手を出す奴は必ず後悔させてやる</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>react3_wait</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>c3_wait</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>待て、もっと教えろ！</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>待て、もっと教えろ！</t>
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>react4_bored</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>react3_become</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>choice</t>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>c3_become</t>
+          <t>zek_r4a</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>俺も……ヌルのようになるのか？</t>
+          <t>与太話……ふふ、そう思いたい気持ちは分かりますよ。でも、真実は変わりません。</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>俺も……ヌルのようになるのか？</t>
+          <t>与太話……ふふ、そう思いたい気持ちは分かりますよ。でも、真実は変わりません。</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="B73" t="inlineStr">
         <is>
-          <t>react3_stare</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>c3_stare</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>（無言で記録チップが消えた場所を見つめる）</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>（無言で記録チップが消えた場所を見つめる）</t>
+          <t>scene3_continue</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>react3_wait</t>
+          <t>react4_scared</t>
         </is>
       </c>
     </row>
@@ -1684,111 +1679,111 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>zek_r4</t>
+          <t>zek_r4b</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>……ふふ、焦らないで。時が来れば、全てを明かしましょう。</t>
+          <t>ええ、そうでしょうとも。</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>……ふふ、焦らないで。時が来れば、全てを明かしましょう。</t>
+          <t>ええ、そうでしょうとも。</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="F76" t="inlineStr">
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>scene3_continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>react4_defiant</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>zek_r4c</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>クク……その気概、嫌いではありません。アスタロト様もきっと、そう言われたら喜ぶでしょうね。</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>クク……その気概、嫌いではありません。アスタロト様もきっと、そう言われたら喜ぶでしょうね。</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>scene3_continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>scene3_continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="F81" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>narr_12</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>（ゼクが影の中へと消えていく。）</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>（ゼクが影の中へと消えていく。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>scene4_balgas</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>react3_become</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="F79" t="inlineStr">
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>narr_11</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>（遠くでバルガスの足音が聞こえる。）</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>（遠くでバルガスの足音が聞こえる。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="F82" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>zek_r5</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>……それは、あなた次第です。</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>……それは、あなた次第です。</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>narr_13</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>（ゼクが影の中へと消えていく。）</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>（ゼクが影の中へと消えていく。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>scene4_balgas</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>react3_stare</t>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>zek_8</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>おや、バルガスさんが来られましたね。あの方には嫌われているので、私はここでおいとましましょうか。</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>おや、バルガスさんが来られましたね。あの方には嫌われているので、私はここでおいとましましょうか。</t>
         </is>
       </c>
     </row>
@@ -1800,210 +1795,421 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>zek_r6</t>
+          <t>zek_9</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>……賢明ですね。では、またお会いしましょう。</t>
+          <t>……いずれまた、この続きを話すとしましょう。</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>……賢明ですね。では、またお会いしましょう。</t>
+          <t>……いずれまた、この続きを話すとしましょう。</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>narr_14</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>（ゼクが影の中へと消えていく。）</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>（ゼクが影の中へと消えていく。）</t>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>choice3</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
+          <t>react3_wait</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>c3_wait</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>待て！</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>待て！</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>react3_become</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>c3_become</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>私も……ヌルのようになるのか？</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>私も……ヌルのようになるのか？</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>react3_stare</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>c3_stare</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>（無言を貫く）</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>（無言を貫く）</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>react3_wait</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>zek_r4</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>……ふふ、焦らないで。時が来れば、全てが明らかになるでしょう。</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>……ふふ、焦らないで。時が来れば、全てが明らかになるでしょう。</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>narr_12</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>（ゼクが影の中へと消えていく。）</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>（ゼクが影の中へと消えていく。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="B91" t="inlineStr">
+        <is>
           <t>scene4_balgas</t>
         </is>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>scene4_balgas</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lobby_Normal");             var data = SoundManager.current.GetData("BGM/Lobby_Normal");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lobby_Normal");             }</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>narr_15</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>（バルガスが廊下に現れる。）</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>（バルガスが廊下に現れる。）</t>
-        </is>
-      </c>
-    </row>
     <row r="92">
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>balgas_1</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>……おい、何をボーッとしてる？ ゼクの野郎、また何か吹き込んでいったんじゃねえだろうな？</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>……おい、何をボーッとしてる？ ゼクの野郎、また何か吹き込んでいったんじゃねえだろうな？</t>
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>react3_become</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="F93" t="inlineStr">
         <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>zek_r5</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>……それは、あなた次第です。</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>……それは、あなた次第です。</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>narr_13</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>（ゼクが影の中へと消えていく。）</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>（ゼクが影の中へと消えていく。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>scene4_balgas</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>react3_stare</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>zek_r6</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>……では、またお会いしましょう。</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>……では、またお会いしましょう。</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>narr_14</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>（ゼクが影の中へと消えていく。）</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>（ゼクが影の中へと消えていく。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>scene4_balgas</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>scene4_balgas</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lobby_Normal");             var data = SoundManager.current.GetData("BGM/Lobby_Normal");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lobby_Normal");             }</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>balgas_2</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>あいつの言うことは半分嘘、半分本当だ。全部を信じるなよ。……ただ、こいつだけは覚えておけ。お前が人間でいられるかどうかは、お前自身の選択次第だ。</t>
-        </is>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>あいつの言うことは半分嘘、半分本当だ。全部を信じるなよ。……ただ、こいつだけは覚えておけ。お前が人間でいられるかどうかは、お前自身の選択次第だ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="B94" t="inlineStr">
+    </row>
+    <row r="104">
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>narr_15</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>（バルガスが廊下に現れる。）</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>（バルガスが廊下に現れる。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>balgas_1</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>……おい、ゼクの野郎、また何か吹き込んでいったんじゃねえだろうな？</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>……おい、ゼクの野郎、また何か吹き込んでいったんじゃねえだろうな？</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="B107" t="inlineStr">
         <is>
           <t>ending</t>
         </is>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
+    <row r="108">
+      <c r="A108" t="inlineStr">
         <is>
           <t>ending</t>
         </is>
       </c>
     </row>
-    <row r="96">
-      <c r="D96" t="inlineStr">
+    <row r="109">
+      <c r="D109" t="inlineStr">
         <is>
           <t>setFlag</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>chitsii.arena.player.null_chip_obtained,1</t>
         </is>
       </c>
     </row>
-    <row r="97">
-      <c r="D97" t="inlineStr">
+    <row r="110">
+      <c r="D110" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>Elin_SukutsuArena.ArenaManager.GrantMakumaReward();</t>
         </is>
       </c>
     </row>
-    <row r="98">
-      <c r="D98" t="inlineStr">
+    <row r="111">
+      <c r="D111" t="inlineStr">
         <is>
           <t>end</t>
         </is>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_makuma.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_makuma.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K111"/>
+  <dimension ref="A1:K112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2211,6 +2211,23 @@
     <row r="111">
       <c r="D111" t="inlineStr">
         <is>
+          <t>modInvoke</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>complete_quest(12_makuma)</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="D112" t="inlineStr">
+        <is>
           <t>end</t>
         </is>
       </c>
